--- a/Excel/beat_finder.xlsx
+++ b/Excel/beat_finder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,156 +9,132 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Beat Finder - Audacity Manual</t>
+  </si>
+  <si>
+    <t>Beat Finder</t>
+  </si>
+  <si>
+    <t>From Audacity Development Manual</t>
+  </si>
+  <si>
+    <t>Jump to: navigation, search</t>
+  </si>
+  <si>
+    <t>Beat Finder attempts to place labels at beats which are much louder than the surrounding audio. It's a fairly rough and ready tool, and will not necessarily work well on a typical modern pop music track with compressed dynamic range.</t>
+  </si>
+  <si>
+    <t>Accessed by: Analyze &gt; Beat Finder...</t>
+  </si>
+  <si>
+    <t>Threshold Percentage</t>
+  </si>
+  <si>
+    <t>Sets the beat detection threshold. The default setting is 65%. The setting can be changed by typing directly into the box or by using the slider.</t>
+  </si>
+  <si>
+    <t>If you do not get enough beats detected, try reducing the "Threshold Percentage" setting.</t>
+  </si>
+  <si>
+    <t>If you already have a label track and that is included in the selection that you make for the analysis then these labels will be added to your selected label track - possibly causing confusion with your existing labels.</t>
+  </si>
+  <si>
+    <t>Workaround: Ensure you just select audio track(s) and include no label track in the selection for the analysis.</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Clicking on the command buttons give the following results:</t>
+  </si>
+  <si>
+    <t>Manage gives a dropdown menu enabling you to manage presets for the tool and to see some detail about the tool. For details see Manage presets</t>
+  </si>
+  <si>
+    <t>Preview plays a short preview of what the audio would sound like if the effect is applied with the current settings, without making actual changes to the audio.  The length of preview is determined by your setting in Edit &gt; Preferences &gt; Playback, the default setting is 6 seconds.</t>
+  </si>
+  <si>
+    <t>OK applies the effect to the selected audio with the current effect settings and closes the dialog</t>
+  </si>
+  <si>
+    <t>Cancel aborts the effect and leaves the audio unchanged, closing the dialog</t>
+  </si>
+  <si>
+    <t>brings you to the appropriate page in the Manual, this page</t>
+  </si>
+  <si>
+    <t>बीट शोधक - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>बीट शोधक</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>बीट शोधक आसपासच्या ध्वनीपेक्षा जोरात असलेल्या बीट्सवर नावपट्टीे ठेवण्याचा प्रयत्न करतो. हे बर्‍यापैकी उग्र आणि तयार साधन आहे आणि संकुचित गतिमान श्रेणीसह ठराविक आधुनिक पॉप संगीत गीतपट्टावर चांगले कार्य करणार नाही.</t>
+  </si>
+  <si>
+    <t>याद्वारे प्रवेश केलेले:  विश्लेषण&gt; बीट शोधक ...</t>
+  </si>
+  <si>
+    <t>थ्रेशोल्ड टक्केवारी</t>
+  </si>
+  <si>
+    <t>बीट शोध थ्रेशोल्ड निवड करते. पूर्वनिर्धारीत समायोजन 65% आहे. थेट बॉक्समध्ये लेखन करून किंवा सरकती पट्टी वापरुन समायोजन बदलली जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>आपणास पुरेशी बीट्स सापडली नाहीत तर, "थ्रेशोल्ड टक्केवारी" समायोजन कमी करण्याचा प्रयत्न करा.</t>
+  </si>
+  <si>
+    <t>आपल्याकडे आधीपासूनच नामित गीतपट्टा असल्यास आणि त्या विश्लेषणासाठी आपण केलेल्या निवडीमध्ये ते समाविष्ट केले असल्यास ही नावपट्टीे आपल्या निवडलेल्या नामित गीतपट्टामध्ये जोडली जातील - शक्यतो आपल्या विद्यमान नावपट्टीसह गोंधळ होऊ शकेल.</t>
+  </si>
+  <si>
+    <t>कार्यवाही: आपण फक्त ध्वनी गीतपट्टा निवडल्याचे सुनिश्चित करा आणि विश्लेषणाच्या निवडीमध्ये कोणतेही नामित गीतपट्टा समाविष्ट करू नका.</t>
+  </si>
+  <si>
+    <t>कळ</t>
+  </si>
+  <si>
+    <t>आज्ञा कळवर क्लिक केल्याने खालील परिणाम मिळतात:</t>
+  </si>
+  <si>
+    <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे पूर्वनिर्धारीत व्यवस्थापित करण्यास आणि साधनाबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी पूर्वनिर्धारीत्स व्यवस्थापित करा पहा</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन ध्वनीमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान समायोजनसह लागू केल्यास ध्वनीला काय वाटेल याचा एक छोटासा पूर्वावलोकन वाजवा करतो. पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; पुनर्मुद्रण मधील समायोजन द्वारे निश्चित केली जाते , पूर्वनिर्धारीत समायोजन 6 सेकंद असते.</t>
+  </si>
+  <si>
+    <t>ठीक आहे सध्याच्या प्रभाव समायोजनसह निवडलेल्या ध्वनीवर प्रभाव लागू करते आणि संवाद बंद करते</t>
+  </si>
+  <si>
+    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ध्वनीमध्ये कोणताही बदल होत नाही</t>
+  </si>
+  <si>
+    <t>या पृष्ठावरील माहिती पुस्तिकामध्ये आपल्याला योग्य पृष्ठावर आणते</t>
+  </si>
   <si>
     <t>English</t>
   </si>
   <si>
     <t>Marathi</t>
-  </si>
-  <si>
-    <t>Beat Finder - Audacity Manual</t>
-  </si>
-  <si>
-    <t>Beat Finder</t>
-  </si>
-  <si>
-    <t>From Audacity Development Manual</t>
-  </si>
-  <si>
-    <t>Jump to: navigation, search</t>
-  </si>
-  <si>
-    <t>Beat Finder attempts to place labels at beats which are much louder than the surrounding audio. It's a fairly rough and ready tool, and will not necessarily work well on a typical modern pop music track with compressed dynamic range.</t>
-  </si>
-  <si>
-    <t>Accessed by: Analyze &gt; Beat Finder...</t>
-  </si>
-  <si>
-    <t>Threshold Percentage</t>
-  </si>
-  <si>
-    <t>Sets the beat detection threshold. The default setting is 65%. The setting can be changed by typing directly into the box or by using the slider.</t>
-  </si>
-  <si>
-    <t>If you do not get enough beats detected, try reducing the "Threshold Percentage" setting.</t>
-  </si>
-  <si>
-    <t>If you already have a label track and that is included in the selection that you make for the analysis then these labels will be added to your selected label track - possibly causing confusion with your existing labels.</t>
-  </si>
-  <si>
-    <t>Workaround: Ensure you just select audio track(s) and include no label track in the selection for the analysis.</t>
-  </si>
-  <si>
-    <t>Buttons</t>
-  </si>
-  <si>
-    <t>Clicking on the command buttons give the following results:</t>
-  </si>
-  <si>
-    <t>Manage gives a dropdown menu enabling you to manage presets for the tool and to see some detail about the tool. For details see Manage presets</t>
-  </si>
-  <si>
-    <t>Preview plays a short preview of what the audio would sound like if the effect is applied with the current settings, without making actual changes to the audio.</t>
-  </si>
-  <si>
-    <t>The length of preview is determined by your setting in Edit &gt; Preferences &gt; Playback, the default setting is 6 seconds.</t>
-  </si>
-  <si>
-    <t>OK applies the effect to the selected audio with the current effect settings and closes the dialog</t>
-  </si>
-  <si>
-    <t>Cancel aborts the effect and leaves the audio unchanged, closing the dialog</t>
-  </si>
-  <si>
-    <t>brings you to the appropriate page in the Manual, this page</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>|&lt; Index of Effects, Generators and Analyzers</t>
-  </si>
-  <si>
-    <t>|&lt; Analyze Menu</t>
-  </si>
-  <si>
-    <t>बीट फाइंडर - ऑडसीटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>बीट फाइंडर</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>बीट फाइंडर आसपासच्या ऑडिओपेक्षा जोरात असलेल्या बीट्सवर लेबले ठेवण्याचा प्रयत्न करतो. हे बर्‍यापैकी उग्र आणि तयार साधन आहे आणि संकुचित डायनॅमिक श्रेणीसह टिपिकल आधुनिक पॉप म्युझिक ट्रॅकवर चांगले कार्य करणार नाही.</t>
-  </si>
-  <si>
-    <t>याद्वारे प्रवेश केलेले: विश्लेषण&gt; बीट फाइंडर ...</t>
-  </si>
-  <si>
-    <t>थ्रेशोल्ड टक्केवारी</t>
-  </si>
-  <si>
-    <t>बीट डिटेक्शन थ्रेशोल्ड सेट करते. डीफॉल्ट सेटिंग 65% आहे. थेट बॉक्समध्ये टाइप करून किंवा स्लाइडर वापरुन सेटिंग बदलली जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>आपल्याला पुरेसे बीट्स सापडले नाहीत तर, "थ्रेशोल्ड टक्केवारी" सेटिंग कमी करण्याचा प्रयत्न करा.</t>
-  </si>
-  <si>
-    <t>आपल्याकडे आधीपासूनच लेबल ट्रॅक असल्यास आणि त्या विश्लेषणासाठी आपण केलेल्या निवडीमध्ये ते समाविष्ट केले असल्यास ही लेबले आपल्या निवडलेल्या लेबल ट्रॅकमध्ये जोडली जातील - शक्यतो आपल्या विद्यमान लेबलांसह गोंधळ होऊ शकेल.</t>
-  </si>
-  <si>
-    <t>कार्यवाही: आपण फक्त ऑडिओ ट्रॅक निवडल्याचे सुनिश्चित करा आणि विश्लेषणासाठी निवडीमध्ये कोणत्याही लेबल ट्रॅकचा समावेश नाही.</t>
-  </si>
-  <si>
-    <t>बटणे</t>
-  </si>
-  <si>
-    <t>कमांड बटणावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
-  </si>
-  <si>
-    <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे प्रीसेट सेट करण्यास आणि टूलबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकन ऑडिओमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ऑडिओला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग 6 सेकंद असते.</t>
-  </si>
-  <si>
-    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ऑडिओवर प्रभाव लागू करते आणि संवाद बंद करते</t>
-  </si>
-  <si>
-    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ऑडिओमध्ये कोणताही बदल होत नाही</t>
-  </si>
-  <si>
-    <t>या पृष्ठावरील मॅन्युअलमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
-  </si>
-  <si>
-    <t>दुवे</t>
-  </si>
-  <si>
-    <t>| &lt;प्रभाव, जनरेटर आणि विश्लेषकांचे अनुक्रमणिका</t>
-  </si>
-  <si>
-    <t>| &lt;मेनूचे विश्लेषण करा</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,10 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -221,6 +200,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -299,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -333,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,262 +494,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
